--- a/contratos/contratos-5-2012.xlsx
+++ b/contratos/contratos-5-2012.xlsx
@@ -601,7 +601,7 @@
     <t>TOME SARA EVA GRACIELA</t>
   </si>
   <si>
-    <t>FERNANDEZ MARIO H, GALLICET OSCAR M</t>
+    <t>FERNANDEZ MARIO H. GALLICET OSCAR M</t>
   </si>
   <si>
     <t>REYES FLAVIA MILENA</t>
@@ -616,7 +616,7 @@
     <t>ARGACHA HIRINSON</t>
   </si>
   <si>
-    <t>TRABICHET MARIA, VERGARA ADEL Y OTRA</t>
+    <t>TRABICHET MARIA. VERGARA ADEL Y OTRA</t>
   </si>
   <si>
     <t>JUSID NICOLAS</t>
@@ -625,7 +625,7 @@
     <t>GRUPO MARSO S.R.L.</t>
   </si>
   <si>
-    <t>RICCOTTI, MARIANA EDITH</t>
+    <t>RICCOTTI. MARIANA EDITH</t>
   </si>
   <si>
     <t>VALORI GUILLERMO MIGUEL</t>
@@ -715,7 +715,7 @@
     <t>AMED CAMIL</t>
   </si>
   <si>
-    <t>MARSICO GUILLERMO MIGUEL, MARSICO JUAN EDUARDO</t>
+    <t>MARSICO GUILLERMO MIGUEL. MARSICO JUAN EDUARDO</t>
   </si>
   <si>
     <t>RODE NELSON FEDERICO</t>
@@ -1051,424 +1051,424 @@
     <t>141</t>
   </si>
   <si>
-    <t>2.918,50</t>
-  </si>
-  <si>
-    <t>22.870,00</t>
-  </si>
-  <si>
-    <t>91.935,52</t>
-  </si>
-  <si>
-    <t>298.286,79</t>
-  </si>
-  <si>
-    <t>2.378,00</t>
-  </si>
-  <si>
-    <t>2.550,00</t>
-  </si>
-  <si>
-    <t>2.400,86</t>
-  </si>
-  <si>
-    <t>479,76</t>
-  </si>
-  <si>
-    <t>8.961,58</t>
-  </si>
-  <si>
-    <t>687,50</t>
-  </si>
-  <si>
-    <t>14,40</t>
-  </si>
-  <si>
-    <t>7.899,61</t>
-  </si>
-  <si>
-    <t>2.320,00</t>
-  </si>
-  <si>
-    <t>532,15</t>
-  </si>
-  <si>
-    <t>60,00</t>
-  </si>
-  <si>
-    <t>237,50</t>
-  </si>
-  <si>
-    <t>2.960,00</t>
-  </si>
-  <si>
-    <t>217,06</t>
-  </si>
-  <si>
-    <t>22.992,54</t>
-  </si>
-  <si>
-    <t>247,50</t>
-  </si>
-  <si>
-    <t>1.643,56</t>
-  </si>
-  <si>
-    <t>27,70</t>
-  </si>
-  <si>
-    <t>647,00</t>
-  </si>
-  <si>
-    <t>1.725,00</t>
-  </si>
-  <si>
-    <t>3.001,00</t>
-  </si>
-  <si>
-    <t>10.936,65</t>
-  </si>
-  <si>
-    <t>3.190,23</t>
-  </si>
-  <si>
-    <t>645,52</t>
-  </si>
-  <si>
-    <t>4.356,27</t>
-  </si>
-  <si>
-    <t>2.390,00</t>
-  </si>
-  <si>
-    <t>7.411,97</t>
-  </si>
-  <si>
-    <t>15.977,12</t>
-  </si>
-  <si>
-    <t>750,00</t>
-  </si>
-  <si>
-    <t>80,00</t>
-  </si>
-  <si>
-    <t>136,00</t>
-  </si>
-  <si>
-    <t>13.342,34</t>
-  </si>
-  <si>
-    <t>2.283,00</t>
-  </si>
-  <si>
-    <t>7.260,00</t>
-  </si>
-  <si>
-    <t>10.544,79</t>
-  </si>
-  <si>
-    <t>575,50</t>
-  </si>
-  <si>
-    <t>25,12</t>
-  </si>
-  <si>
-    <t>420,00</t>
-  </si>
-  <si>
-    <t>4.500,00</t>
-  </si>
-  <si>
-    <t>1.090,00</t>
-  </si>
-  <si>
-    <t>18,05</t>
-  </si>
-  <si>
-    <t>7.595,00</t>
-  </si>
-  <si>
-    <t>11.928,00</t>
-  </si>
-  <si>
-    <t>2.181,00</t>
-  </si>
-  <si>
-    <t>2.610,00</t>
-  </si>
-  <si>
-    <t>3.610,64</t>
-  </si>
-  <si>
-    <t>152,00</t>
-  </si>
-  <si>
-    <t>3.760,00</t>
-  </si>
-  <si>
-    <t>959,00</t>
-  </si>
-  <si>
-    <t>1.155,00</t>
-  </si>
-  <si>
-    <t>250,00</t>
-  </si>
-  <si>
-    <t>20.256,00</t>
-  </si>
-  <si>
-    <t>858,00</t>
-  </si>
-  <si>
-    <t>18.254,00</t>
-  </si>
-  <si>
-    <t>88,00</t>
-  </si>
-  <si>
-    <t>154.623,41</t>
-  </si>
-  <si>
-    <t>378,48</t>
-  </si>
-  <si>
-    <t>96,00</t>
-  </si>
-  <si>
-    <t>4.404,50</t>
-  </si>
-  <si>
-    <t>2.400,00</t>
-  </si>
-  <si>
-    <t>1.140,90</t>
-  </si>
-  <si>
-    <t>313,00</t>
-  </si>
-  <si>
-    <t>7.087,00</t>
-  </si>
-  <si>
-    <t>6.117,95</t>
-  </si>
-  <si>
-    <t>8,75</t>
-  </si>
-  <si>
-    <t>183,81</t>
-  </si>
-  <si>
-    <t>1.339,00</t>
-  </si>
-  <si>
-    <t>1.953,20</t>
-  </si>
-  <si>
-    <t>10.000,00</t>
-  </si>
-  <si>
-    <t>1.504,00</t>
-  </si>
-  <si>
-    <t>720,00</t>
-  </si>
-  <si>
-    <t>798,00</t>
-  </si>
-  <si>
-    <t>1.772,00</t>
-  </si>
-  <si>
-    <t>1.793,22</t>
-  </si>
-  <si>
-    <t>600,00</t>
-  </si>
-  <si>
-    <t>1.885,00</t>
-  </si>
-  <si>
-    <t>871,69</t>
-  </si>
-  <si>
-    <t>1.710,00</t>
-  </si>
-  <si>
-    <t>90.720,00</t>
-  </si>
-  <si>
-    <t>2.670,00</t>
-  </si>
-  <si>
-    <t>2.000,00</t>
-  </si>
-  <si>
-    <t>1.200,00</t>
-  </si>
-  <si>
-    <t>700,00</t>
-  </si>
-  <si>
-    <t>4.000,00</t>
-  </si>
-  <si>
-    <t>21.326,51</t>
-  </si>
-  <si>
-    <t>500,00</t>
-  </si>
-  <si>
-    <t>950,00</t>
-  </si>
-  <si>
-    <t>650,00</t>
-  </si>
-  <si>
-    <t>100,00</t>
-  </si>
-  <si>
-    <t>2.450,00</t>
-  </si>
-  <si>
-    <t>1.500,00</t>
-  </si>
-  <si>
-    <t>200,00</t>
-  </si>
-  <si>
-    <t>240,00</t>
-  </si>
-  <si>
-    <t>19.160,00</t>
-  </si>
-  <si>
-    <t>556,15</t>
-  </si>
-  <si>
-    <t>20,00</t>
-  </si>
-  <si>
-    <t>85,00</t>
-  </si>
-  <si>
-    <t>1.350,00</t>
-  </si>
-  <si>
-    <t>7.200,00</t>
-  </si>
-  <si>
-    <t>1.334,03</t>
-  </si>
-  <si>
-    <t>1.575,00</t>
-  </si>
-  <si>
-    <t>9.705,00</t>
-  </si>
-  <si>
-    <t>64,70</t>
-  </si>
-  <si>
-    <t>214,64</t>
-  </si>
-  <si>
-    <t>77,00</t>
-  </si>
-  <si>
-    <t>57,80</t>
-  </si>
-  <si>
-    <t>2.634,00</t>
-  </si>
-  <si>
-    <t>370,00</t>
-  </si>
-  <si>
-    <t>543,71</t>
-  </si>
-  <si>
-    <t>201,20</t>
-  </si>
-  <si>
-    <t>273,29</t>
-  </si>
-  <si>
-    <t>2.996,00</t>
-  </si>
-  <si>
-    <t>518,00</t>
-  </si>
-  <si>
-    <t>878,00</t>
-  </si>
-  <si>
-    <t>550,20</t>
-  </si>
-  <si>
-    <t>953,57</t>
-  </si>
-  <si>
-    <t>2.668,14</t>
-  </si>
-  <si>
-    <t>877,86</t>
-  </si>
-  <si>
-    <t>13.200,00</t>
-  </si>
-  <si>
-    <t>490,00</t>
-  </si>
-  <si>
-    <t>692,92</t>
-  </si>
-  <si>
-    <t>790.560,12</t>
-  </si>
-  <si>
-    <t>1.100,00</t>
-  </si>
-  <si>
-    <t>1.260,00</t>
-  </si>
-  <si>
-    <t>402.800,00</t>
-  </si>
-  <si>
-    <t>34.000,00</t>
-  </si>
-  <si>
-    <t>407.904,50</t>
-  </si>
-  <si>
-    <t>20.000,00</t>
-  </si>
-  <si>
-    <t>427.954,00</t>
-  </si>
-  <si>
-    <t>417.968,00</t>
-  </si>
-  <si>
-    <t>414.000,00</t>
-  </si>
-  <si>
-    <t>409.048,00</t>
-  </si>
-  <si>
-    <t>380.000,00</t>
-  </si>
-  <si>
-    <t>411.164,69</t>
-  </si>
-  <si>
-    <t>605,00</t>
-  </si>
-  <si>
-    <t>140,00</t>
+    <t>2918.50</t>
+  </si>
+  <si>
+    <t>22870.00</t>
+  </si>
+  <si>
+    <t>91935.52</t>
+  </si>
+  <si>
+    <t>298286.79</t>
+  </si>
+  <si>
+    <t>2378.00</t>
+  </si>
+  <si>
+    <t>2550.00</t>
+  </si>
+  <si>
+    <t>2400.86</t>
+  </si>
+  <si>
+    <t>479.76</t>
+  </si>
+  <si>
+    <t>8961.58</t>
+  </si>
+  <si>
+    <t>687.50</t>
+  </si>
+  <si>
+    <t>14.40</t>
+  </si>
+  <si>
+    <t>7899.61</t>
+  </si>
+  <si>
+    <t>2320.00</t>
+  </si>
+  <si>
+    <t>532.15</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>237.50</t>
+  </si>
+  <si>
+    <t>2960.00</t>
+  </si>
+  <si>
+    <t>217.06</t>
+  </si>
+  <si>
+    <t>22992.54</t>
+  </si>
+  <si>
+    <t>247.50</t>
+  </si>
+  <si>
+    <t>1643.56</t>
+  </si>
+  <si>
+    <t>27.70</t>
+  </si>
+  <si>
+    <t>647.00</t>
+  </si>
+  <si>
+    <t>1725.00</t>
+  </si>
+  <si>
+    <t>3001.00</t>
+  </si>
+  <si>
+    <t>10936.65</t>
+  </si>
+  <si>
+    <t>3190.23</t>
+  </si>
+  <si>
+    <t>645.52</t>
+  </si>
+  <si>
+    <t>4356.27</t>
+  </si>
+  <si>
+    <t>2390.00</t>
+  </si>
+  <si>
+    <t>7411.97</t>
+  </si>
+  <si>
+    <t>15977.12</t>
+  </si>
+  <si>
+    <t>750.00</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>136.00</t>
+  </si>
+  <si>
+    <t>13342.34</t>
+  </si>
+  <si>
+    <t>2283.00</t>
+  </si>
+  <si>
+    <t>7260.00</t>
+  </si>
+  <si>
+    <t>10544.79</t>
+  </si>
+  <si>
+    <t>575.50</t>
+  </si>
+  <si>
+    <t>25.12</t>
+  </si>
+  <si>
+    <t>420.00</t>
+  </si>
+  <si>
+    <t>4500.00</t>
+  </si>
+  <si>
+    <t>1090.00</t>
+  </si>
+  <si>
+    <t>18.05</t>
+  </si>
+  <si>
+    <t>7595.00</t>
+  </si>
+  <si>
+    <t>11928.00</t>
+  </si>
+  <si>
+    <t>2181.00</t>
+  </si>
+  <si>
+    <t>2610.00</t>
+  </si>
+  <si>
+    <t>3610.64</t>
+  </si>
+  <si>
+    <t>152.00</t>
+  </si>
+  <si>
+    <t>3760.00</t>
+  </si>
+  <si>
+    <t>959.00</t>
+  </si>
+  <si>
+    <t>1155.00</t>
+  </si>
+  <si>
+    <t>250.00</t>
+  </si>
+  <si>
+    <t>20256.00</t>
+  </si>
+  <si>
+    <t>858.00</t>
+  </si>
+  <si>
+    <t>18254.00</t>
+  </si>
+  <si>
+    <t>88.00</t>
+  </si>
+  <si>
+    <t>154623.41</t>
+  </si>
+  <si>
+    <t>378.48</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>4404.50</t>
+  </si>
+  <si>
+    <t>2400.00</t>
+  </si>
+  <si>
+    <t>1140.90</t>
+  </si>
+  <si>
+    <t>313.00</t>
+  </si>
+  <si>
+    <t>7087.00</t>
+  </si>
+  <si>
+    <t>6117.95</t>
+  </si>
+  <si>
+    <t>8.75</t>
+  </si>
+  <si>
+    <t>183.81</t>
+  </si>
+  <si>
+    <t>1339.00</t>
+  </si>
+  <si>
+    <t>1953.20</t>
+  </si>
+  <si>
+    <t>10000.00</t>
+  </si>
+  <si>
+    <t>1504.00</t>
+  </si>
+  <si>
+    <t>720.00</t>
+  </si>
+  <si>
+    <t>798.00</t>
+  </si>
+  <si>
+    <t>1772.00</t>
+  </si>
+  <si>
+    <t>1793.22</t>
+  </si>
+  <si>
+    <t>600.00</t>
+  </si>
+  <si>
+    <t>1885.00</t>
+  </si>
+  <si>
+    <t>871.69</t>
+  </si>
+  <si>
+    <t>1710.00</t>
+  </si>
+  <si>
+    <t>90720.00</t>
+  </si>
+  <si>
+    <t>2670.00</t>
+  </si>
+  <si>
+    <t>2000.00</t>
+  </si>
+  <si>
+    <t>1200.00</t>
+  </si>
+  <si>
+    <t>700.00</t>
+  </si>
+  <si>
+    <t>4000.00</t>
+  </si>
+  <si>
+    <t>21326.51</t>
+  </si>
+  <si>
+    <t>500.00</t>
+  </si>
+  <si>
+    <t>950.00</t>
+  </si>
+  <si>
+    <t>650.00</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>2450.00</t>
+  </si>
+  <si>
+    <t>1500.00</t>
+  </si>
+  <si>
+    <t>200.00</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>19160.00</t>
+  </si>
+  <si>
+    <t>556.15</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>1350.00</t>
+  </si>
+  <si>
+    <t>7200.00</t>
+  </si>
+  <si>
+    <t>1334.03</t>
+  </si>
+  <si>
+    <t>1575.00</t>
+  </si>
+  <si>
+    <t>9705.00</t>
+  </si>
+  <si>
+    <t>64.70</t>
+  </si>
+  <si>
+    <t>214.64</t>
+  </si>
+  <si>
+    <t>77.00</t>
+  </si>
+  <si>
+    <t>57.80</t>
+  </si>
+  <si>
+    <t>2634.00</t>
+  </si>
+  <si>
+    <t>370.00</t>
+  </si>
+  <si>
+    <t>543.71</t>
+  </si>
+  <si>
+    <t>201.20</t>
+  </si>
+  <si>
+    <t>273.29</t>
+  </si>
+  <si>
+    <t>2996.00</t>
+  </si>
+  <si>
+    <t>518.00</t>
+  </si>
+  <si>
+    <t>878.00</t>
+  </si>
+  <si>
+    <t>550.20</t>
+  </si>
+  <si>
+    <t>953.57</t>
+  </si>
+  <si>
+    <t>2668.14</t>
+  </si>
+  <si>
+    <t>877.86</t>
+  </si>
+  <si>
+    <t>13200.00</t>
+  </si>
+  <si>
+    <t>490.00</t>
+  </si>
+  <si>
+    <t>692.92</t>
+  </si>
+  <si>
+    <t>790560.12</t>
+  </si>
+  <si>
+    <t>1100.00</t>
+  </si>
+  <si>
+    <t>1260.00</t>
+  </si>
+  <si>
+    <t>402800.00</t>
+  </si>
+  <si>
+    <t>34000.00</t>
+  </si>
+  <si>
+    <t>407904.50</t>
+  </si>
+  <si>
+    <t>20000.00</t>
+  </si>
+  <si>
+    <t>427954.00</t>
+  </si>
+  <si>
+    <t>417968.00</t>
+  </si>
+  <si>
+    <t>414000.00</t>
+  </si>
+  <si>
+    <t>409048.00</t>
+  </si>
+  <si>
+    <t>380000.00</t>
+  </si>
+  <si>
+    <t>411164.69</t>
+  </si>
+  <si>
+    <t>605.00</t>
+  </si>
+  <si>
+    <t>140.00</t>
   </si>
 </sst>
 </file>
